--- a/dataanalysis/data/predictions/1000/09051017_1020.xlsx
+++ b/dataanalysis/data/predictions/1000/09051017_1020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-05</t>
   </si>
   <si>
@@ -272,9 +275,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -632,13 +632,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,19 +741,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300035</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1.24</v>
@@ -771,7 +774,7 @@
         <v>163552.05</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K2">
         <v>6</v>
@@ -812,8 +815,23 @@
       <c r="W2">
         <v>0.14</v>
       </c>
+      <c r="X2">
+        <v>-4.04</v>
+      </c>
+      <c r="Y2">
+        <v>24.28</v>
+      </c>
+      <c r="Z2">
+        <v>6.4</v>
+      </c>
       <c r="AC2" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -821,22 +839,25 @@
       <c r="AG2">
         <v>4.312718868255615</v>
       </c>
-      <c r="AH2" t="s">
-        <v>86</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300092</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>4.73</v>
@@ -854,7 +875,7 @@
         <v>68443.81</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -895,8 +916,23 @@
       <c r="W3">
         <v>0.18</v>
       </c>
+      <c r="X3">
+        <v>-1.55</v>
+      </c>
+      <c r="Y3">
+        <v>21.3</v>
+      </c>
+      <c r="Z3">
+        <v>9.289999999999999</v>
+      </c>
       <c r="AC3" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -904,22 +940,25 @@
       <c r="AG3">
         <v>-4.958352565765381</v>
       </c>
-      <c r="AH3" t="s">
-        <v>86</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300237</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -937,7 +976,7 @@
         <v>18955.36</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4">
         <v>7</v>
@@ -978,8 +1017,23 @@
       <c r="W4">
         <v>-0.1</v>
       </c>
+      <c r="X4">
+        <v>3.44</v>
+      </c>
+      <c r="Y4">
+        <v>3.46</v>
+      </c>
+      <c r="Z4">
+        <v>8.81</v>
+      </c>
       <c r="AC4" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -987,22 +1041,25 @@
       <c r="AG4">
         <v>2.576352596282959</v>
       </c>
-      <c r="AH4" t="s">
-        <v>86</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300274</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>11.38</v>
@@ -1020,7 +1077,7 @@
         <v>1122803.2</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1061,8 +1118,23 @@
       <c r="W5">
         <v>0.26</v>
       </c>
+      <c r="X5">
+        <v>1.21</v>
+      </c>
+      <c r="Y5">
+        <v>146.87</v>
+      </c>
+      <c r="Z5">
+        <v>13.68</v>
+      </c>
       <c r="AC5" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1070,22 +1142,25 @@
       <c r="AG5">
         <v>-4.568428993225098</v>
       </c>
-      <c r="AH5" t="s">
-        <v>86</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300277</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>2.13</v>
@@ -1103,7 +1178,7 @@
         <v>34721.82</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1144,8 +1219,23 @@
       <c r="W6">
         <v>0.08</v>
       </c>
+      <c r="X6">
+        <v>-1.2</v>
+      </c>
+      <c r="Y6">
+        <v>15.16</v>
+      </c>
+      <c r="Z6">
+        <v>2.16</v>
+      </c>
       <c r="AC6" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1153,22 +1243,25 @@
       <c r="AG6">
         <v>1.548857927322388</v>
       </c>
-      <c r="AH6" t="s">
-        <v>86</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300409</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>8.52</v>
@@ -1186,7 +1279,7 @@
         <v>203881.22</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K7">
         <v>15</v>
@@ -1227,8 +1320,23 @@
       <c r="W7">
         <v>0.08</v>
       </c>
+      <c r="X7">
+        <v>-0.12</v>
+      </c>
+      <c r="Y7">
+        <v>25.57</v>
+      </c>
+      <c r="Z7">
+        <v>6.76</v>
+      </c>
       <c r="AC7" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1236,22 +1344,25 @@
       <c r="AG7">
         <v>1.984178781509399</v>
       </c>
-      <c r="AH7" t="s">
-        <v>86</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300410</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>6.86</v>
@@ -1269,7 +1380,7 @@
         <v>95529.42999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1310,8 +1421,23 @@
       <c r="W8">
         <v>-1.97</v>
       </c>
+      <c r="X8">
+        <v>-1.71</v>
+      </c>
+      <c r="Y8">
+        <v>11.1</v>
+      </c>
+      <c r="Z8">
+        <v>-0.98</v>
+      </c>
       <c r="AC8" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1319,22 +1445,25 @@
       <c r="AG8">
         <v>4.940194606781006</v>
       </c>
-      <c r="AH8" t="s">
-        <v>86</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300450</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>16.22</v>
@@ -1352,7 +1481,7 @@
         <v>1066288.74</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9">
         <v>6</v>
@@ -1393,8 +1522,23 @@
       <c r="W9">
         <v>1.43</v>
       </c>
+      <c r="X9">
+        <v>6.67</v>
+      </c>
+      <c r="Y9">
+        <v>59.11</v>
+      </c>
+      <c r="Z9">
+        <v>13.45</v>
+      </c>
       <c r="AC9" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1402,22 +1546,25 @@
       <c r="AG9">
         <v>0.2389809489250183</v>
       </c>
-      <c r="AH9" t="s">
-        <v>86</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300457</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>6.31</v>
@@ -1435,7 +1582,7 @@
         <v>161773.35</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -1476,8 +1623,23 @@
       <c r="W10">
         <v>0.21</v>
       </c>
+      <c r="X10">
+        <v>-3.05</v>
+      </c>
+      <c r="Y10">
+        <v>31.28</v>
+      </c>
+      <c r="Z10">
+        <v>6.07</v>
+      </c>
       <c r="AC10" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1485,22 +1647,25 @@
       <c r="AG10">
         <v>2.638870716094971</v>
       </c>
-      <c r="AH10" t="s">
-        <v>86</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300465</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>3.14</v>
@@ -1518,7 +1683,7 @@
         <v>81236.25999999999</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11">
         <v>7</v>
@@ -1559,8 +1724,23 @@
       <c r="W11">
         <v>0.17</v>
       </c>
+      <c r="X11">
+        <v>2.86</v>
+      </c>
+      <c r="Y11">
+        <v>26.16</v>
+      </c>
+      <c r="Z11">
+        <v>4.85</v>
+      </c>
       <c r="AC11" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1568,22 +1748,25 @@
       <c r="AG11">
         <v>9.810810089111328</v>
       </c>
-      <c r="AH11" t="s">
-        <v>86</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300469</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>8.460000000000001</v>
@@ -1601,7 +1784,7 @@
         <v>68661.34</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12">
         <v>12</v>
@@ -1642,8 +1825,23 @@
       <c r="W12">
         <v>0.3</v>
       </c>
+      <c r="X12">
+        <v>4.15</v>
+      </c>
+      <c r="Y12">
+        <v>72</v>
+      </c>
+      <c r="Z12">
+        <v>5.56</v>
+      </c>
       <c r="AC12" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1651,22 +1849,25 @@
       <c r="AG12">
         <v>1.595673561096191</v>
       </c>
-      <c r="AH12" t="s">
-        <v>86</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300486</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>-3.01</v>
@@ -1684,7 +1885,7 @@
         <v>68133.72</v>
       </c>
       <c r="J13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13">
         <v>13</v>
@@ -1725,8 +1926,23 @@
       <c r="W13">
         <v>0.35</v>
       </c>
+      <c r="X13">
+        <v>-5.86</v>
+      </c>
+      <c r="Y13">
+        <v>27.77</v>
+      </c>
+      <c r="Z13">
+        <v>7.59</v>
+      </c>
       <c r="AC13" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1734,22 +1950,25 @@
       <c r="AG13">
         <v>7.072563171386719</v>
       </c>
-      <c r="AH13" t="s">
-        <v>86</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300584</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>4.42</v>
@@ -1767,7 +1986,7 @@
         <v>52608.38</v>
       </c>
       <c r="J14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14">
         <v>19</v>
@@ -1808,8 +2027,23 @@
       <c r="W14">
         <v>0.52</v>
       </c>
+      <c r="X14">
+        <v>6.39</v>
+      </c>
+      <c r="Y14">
+        <v>81.88</v>
+      </c>
+      <c r="Z14">
+        <v>22.81</v>
+      </c>
       <c r="AC14" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1817,22 +2051,25 @@
       <c r="AG14">
         <v>3.819716930389404</v>
       </c>
-      <c r="AH14" t="s">
-        <v>86</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300724</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>5.82</v>
@@ -1850,7 +2087,7 @@
         <v>307300.66</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K15">
         <v>14</v>
@@ -1891,8 +2128,23 @@
       <c r="W15">
         <v>0.11</v>
       </c>
+      <c r="X15">
+        <v>-7.12</v>
+      </c>
+      <c r="Y15">
+        <v>107.5</v>
+      </c>
+      <c r="Z15">
+        <v>0.59</v>
+      </c>
       <c r="AC15" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -1900,22 +2152,25 @@
       <c r="AG15">
         <v>5.47352123260498</v>
       </c>
-      <c r="AH15" t="s">
-        <v>86</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300763</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>15.79</v>
@@ -1933,7 +2188,7 @@
         <v>249499.29</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1974,8 +2229,23 @@
       <c r="W16">
         <v>0.75</v>
       </c>
+      <c r="X16">
+        <v>1.98</v>
+      </c>
+      <c r="Y16">
+        <v>95.8</v>
+      </c>
+      <c r="Z16">
+        <v>11.25</v>
+      </c>
       <c r="AC16" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -1983,22 +2253,25 @@
       <c r="AG16">
         <v>1.836570858955383</v>
       </c>
-      <c r="AH16" t="s">
-        <v>86</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300801</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>3.42</v>
@@ -2016,7 +2289,7 @@
         <v>51729.92</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2057,8 +2330,23 @@
       <c r="W17">
         <v>0.16</v>
       </c>
+      <c r="X17">
+        <v>5.33</v>
+      </c>
+      <c r="Y17">
+        <v>32.5</v>
+      </c>
+      <c r="Z17">
+        <v>14.28</v>
+      </c>
       <c r="AC17" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2066,22 +2354,25 @@
       <c r="AG17">
         <v>-2.224032640457153</v>
       </c>
-      <c r="AH17" t="s">
-        <v>86</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300827</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>2.9</v>
@@ -2099,7 +2390,7 @@
         <v>255830.71</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2140,8 +2431,23 @@
       <c r="W18">
         <v>-0.22</v>
       </c>
+      <c r="X18">
+        <v>0.85</v>
+      </c>
+      <c r="Y18">
+        <v>36.66</v>
+      </c>
+      <c r="Z18">
+        <v>4.41</v>
+      </c>
       <c r="AC18" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2149,22 +2455,25 @@
       <c r="AG18">
         <v>22.86537170410156</v>
       </c>
-      <c r="AH18" t="s">
-        <v>86</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>301031</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>1.49</v>
@@ -2182,7 +2491,7 @@
         <v>44502.35</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -2223,8 +2532,23 @@
       <c r="W19">
         <v>0.1</v>
       </c>
+      <c r="X19">
+        <v>-2.48</v>
+      </c>
+      <c r="Y19">
+        <v>107.88</v>
+      </c>
+      <c r="Z19">
+        <v>1.39</v>
+      </c>
       <c r="AC19" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2232,22 +2556,25 @@
       <c r="AG19">
         <v>3.760592460632324</v>
       </c>
-      <c r="AH19" t="s">
-        <v>86</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>301413</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>4.45</v>
@@ -2265,7 +2592,7 @@
         <v>28040.52</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K20">
         <v>11</v>
@@ -2306,8 +2633,23 @@
       <c r="W20">
         <v>0.18</v>
       </c>
+      <c r="X20">
+        <v>8.65</v>
+      </c>
+      <c r="Y20">
+        <v>152</v>
+      </c>
+      <c r="Z20">
+        <v>19.05</v>
+      </c>
       <c r="AC20" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2315,22 +2657,25 @@
       <c r="AG20">
         <v>35.92561721801758</v>
       </c>
-      <c r="AH20" t="s">
-        <v>86</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>301488</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>11.92</v>
@@ -2348,7 +2693,7 @@
         <v>72924.03999999999</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K21">
         <v>8</v>
@@ -2389,8 +2734,23 @@
       <c r="W21">
         <v>0.68</v>
       </c>
+      <c r="X21">
+        <v>-4.03</v>
+      </c>
+      <c r="Y21">
+        <v>146</v>
+      </c>
+      <c r="Z21">
+        <v>3.04</v>
+      </c>
       <c r="AC21" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2398,22 +2758,25 @@
       <c r="AG21">
         <v>1.24163031578064</v>
       </c>
-      <c r="AH21" t="s">
-        <v>86</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>688006</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>13.85</v>
@@ -2431,7 +2794,7 @@
         <v>106043.61</v>
       </c>
       <c r="J22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K22">
         <v>5</v>
@@ -2472,8 +2835,23 @@
       <c r="W22">
         <v>-0.11</v>
       </c>
+      <c r="X22">
+        <v>2.26</v>
+      </c>
+      <c r="Y22">
+        <v>43.6</v>
+      </c>
+      <c r="Z22">
+        <v>19.22</v>
+      </c>
       <c r="AC22" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2481,22 +2859,25 @@
       <c r="AG22">
         <v>9.980546951293945</v>
       </c>
-      <c r="AH22" t="s">
-        <v>86</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>688062</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0.59</v>
@@ -2514,7 +2895,7 @@
         <v>60433.24</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K23">
         <v>9</v>
@@ -2555,8 +2936,23 @@
       <c r="W23">
         <v>-0.51</v>
       </c>
+      <c r="X23">
+        <v>-7.94</v>
+      </c>
+      <c r="Y23">
+        <v>58.29</v>
+      </c>
+      <c r="Z23">
+        <v>6.88</v>
+      </c>
       <c r="AC23" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2564,22 +2960,25 @@
       <c r="AG23">
         <v>2.582385778427124</v>
       </c>
-      <c r="AH23" t="s">
-        <v>86</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>688141</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-3.46</v>
@@ -2597,7 +2996,7 @@
         <v>32772.81</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -2638,8 +3037,23 @@
       <c r="W24">
         <v>-0.01</v>
       </c>
+      <c r="X24">
+        <v>-0.74</v>
+      </c>
+      <c r="Y24">
+        <v>48.13</v>
+      </c>
+      <c r="Z24">
+        <v>18.26</v>
+      </c>
       <c r="AC24" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2647,22 +3061,25 @@
       <c r="AG24">
         <v>4.911247730255127</v>
       </c>
-      <c r="AH24" t="s">
-        <v>86</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>688195</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>7.52</v>
@@ -2680,7 +3097,7 @@
         <v>95918.14</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K25">
         <v>15</v>
@@ -2721,8 +3138,23 @@
       <c r="W25">
         <v>-0.46</v>
       </c>
+      <c r="X25">
+        <v>-4.82</v>
+      </c>
+      <c r="Y25">
+        <v>96.40000000000001</v>
+      </c>
+      <c r="Z25">
+        <v>15.98</v>
+      </c>
       <c r="AC25" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>1</v>
@@ -2730,22 +3162,25 @@
       <c r="AG25">
         <v>78.01926422119141</v>
       </c>
-      <c r="AH25" t="s">
-        <v>86</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>688261</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-2.76</v>
@@ -2763,7 +3198,7 @@
         <v>30704.53</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2804,8 +3239,23 @@
       <c r="W26">
         <v>-0.03</v>
       </c>
+      <c r="X26">
+        <v>-6.89</v>
+      </c>
+      <c r="Y26">
+        <v>88.5</v>
+      </c>
+      <c r="Z26">
+        <v>6.24</v>
+      </c>
       <c r="AC26" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2813,22 +3263,25 @@
       <c r="AG26">
         <v>9.218597412109375</v>
       </c>
-      <c r="AH26" t="s">
-        <v>86</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>688299</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>5.61</v>
@@ -2846,7 +3299,7 @@
         <v>63887.88</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -2887,8 +3340,23 @@
       <c r="W27">
         <v>-0.07000000000000001</v>
       </c>
+      <c r="X27">
+        <v>-1.87</v>
+      </c>
+      <c r="Y27">
+        <v>25.5</v>
+      </c>
+      <c r="Z27">
+        <v>3.36</v>
+      </c>
       <c r="AC27" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -2896,22 +3364,25 @@
       <c r="AG27">
         <v>6.278037071228027</v>
       </c>
-      <c r="AH27" t="s">
-        <v>86</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>688411</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>13.76</v>
@@ -2929,7 +3400,7 @@
         <v>71054.3</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -2970,8 +3441,23 @@
       <c r="W28">
         <v>0.14</v>
       </c>
+      <c r="X28">
+        <v>-3.17</v>
+      </c>
+      <c r="Y28">
+        <v>197.88</v>
+      </c>
+      <c r="Z28">
+        <v>10.94</v>
+      </c>
       <c r="AC28" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -2979,22 +3465,25 @@
       <c r="AG28">
         <v>2.53073525428772</v>
       </c>
-      <c r="AH28" t="s">
-        <v>86</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>688498</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-4.48</v>
@@ -3012,7 +3501,7 @@
         <v>125694.67</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K29">
         <v>19</v>
@@ -3053,8 +3542,23 @@
       <c r="W29">
         <v>-0.13</v>
       </c>
+      <c r="X29">
+        <v>-13.22</v>
+      </c>
+      <c r="Y29">
+        <v>370</v>
+      </c>
+      <c r="Z29">
+        <v>6.69</v>
+      </c>
       <c r="AC29" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3062,22 +3566,25 @@
       <c r="AG29">
         <v>3.204187154769897</v>
       </c>
-      <c r="AH29" t="s">
-        <v>86</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>688559</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>7.86</v>
@@ -3095,7 +3602,7 @@
         <v>68902.06</v>
       </c>
       <c r="J30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3136,8 +3643,23 @@
       <c r="W30">
         <v>0.03</v>
       </c>
+      <c r="X30">
+        <v>1.84</v>
+      </c>
+      <c r="Y30">
+        <v>44.8</v>
+      </c>
+      <c r="Z30">
+        <v>13.79</v>
+      </c>
       <c r="AC30" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3145,22 +3667,25 @@
       <c r="AG30">
         <v>4.380854606628418</v>
       </c>
-      <c r="AH30" t="s">
-        <v>86</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>688717</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>3.9</v>
@@ -3178,7 +3703,7 @@
         <v>41569.71</v>
       </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -3219,8 +3744,23 @@
       <c r="W31">
         <v>0.34</v>
       </c>
+      <c r="X31">
+        <v>-0.73</v>
+      </c>
+      <c r="Y31">
+        <v>84.86</v>
+      </c>
+      <c r="Z31">
+        <v>6.07</v>
+      </c>
       <c r="AC31" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3228,8 +3768,11 @@
       <c r="AG31">
         <v>2.942512989044189</v>
       </c>
-      <c r="AH31" t="s">
-        <v>86</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
